--- a/outlines/INFO 2603.xlsx
+++ b/outlines/INFO 2603.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F139BF2-5FBA-462E-B294-87ADD5E58CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE934E5B-24AE-4FDD-B5B6-C919C12BAF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="251">
   <si>
     <t>tier</t>
   </si>
@@ -796,42 +796,7 @@
     <t>Other: (Special Equipment/Tools)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Oracle Virtual Box </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>https://www.virtualbox.org/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Ubuntu OS: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>https://ubuntu.com/</t>
-    </r>
+    <t>Oracle Virtual Box https://www.virtualbox.org/, Ubuntu OS: https://ubuntu.com/</t>
   </si>
   <si>
     <r>
@@ -1454,20 +1419,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -4696,10 +4661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F988"/>
+  <dimension ref="A1:F989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4925,13 +4890,13 @@
       <c r="B17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="63" t="s">
         <v>107</v>
       </c>
       <c r="D17" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="65" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="9"/>
@@ -5065,223 +5030,214 @@
     </row>
     <row r="29" spans="1:6" ht="35.25" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="10"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="409.5" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="9" t="b">
+      <c r="D31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="63" t="s">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="66" t="b">
+      <c r="D33" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E33" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="D34" s="67"/>
-      <c r="E34" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="28.5" customHeight="1">
+    <row r="35" spans="1:6" ht="29.25" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="29.25" customHeight="1">
+    <row r="36" spans="1:6" ht="28.5" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
+    <row r="37" spans="1:6" ht="29.25" customHeight="1">
       <c r="A37" s="21"/>
-      <c r="B37" s="57" t="s">
-        <v>139</v>
+      <c r="B37" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="33" customHeight="1">
+    <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="27" customHeight="1">
+    <row r="39" spans="1:6" ht="33" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="45" customHeight="1">
+    <row r="40" spans="1:6" ht="27" customHeight="1">
       <c r="A40" s="21"/>
-      <c r="B40" s="18" t="s">
-        <v>147</v>
+      <c r="B40" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D40" s="67"/>
       <c r="E40" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="45" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="63" t="s">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E44" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="26">
-        <v>13</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>156</v>
-      </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C45" s="26">
         <v>13</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>156</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -5289,171 +5245,169 @@
       </c>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="21"/>
-      <c r="B46" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="30">
+      <c r="B46" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="26">
         <v>13</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>159</v>
+      <c r="D46" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="30">
+        <v>13</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" ht="135">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="135">
+      <c r="A50" s="21"/>
+      <c r="B50" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="9" t="b">
+      <c r="D50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A51" s="63" t="s">
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A52" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="20" t="s">
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D53" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E53" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="9" t="b">
+      <c r="F53" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="33" t="s">
+    <row r="54" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A54" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B54" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C54" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D54" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>173</v>
-      </c>
-      <c r="F53" s="36"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="37">
-        <v>7</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>177</v>
       </c>
       <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D55" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D56" s="37">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>184</v>
@@ -5462,34 +5416,44 @@
         <v>25</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F57" s="36"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="37">
+        <v>25</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B59" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C59" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D59" s="37">
         <v>35</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E59" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
@@ -5524,545 +5488,546 @@
       <c r="E63" s="38"/>
       <c r="F63" s="36"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="40"/>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="A64" s="26"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A65" s="39"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A66" s="41" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A67" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="61" t="s">
+      <c r="B67" s="42"/>
+      <c r="C67" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="66" t="b">
+      <c r="D67" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="65" t="s">
+      <c r="E67" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="36"/>
-    </row>
-    <row r="67" spans="1:6" ht="39" customHeight="1">
-      <c r="A67" s="43"/>
-      <c r="B67" s="44" t="s">
+      <c r="F67" s="36"/>
+    </row>
+    <row r="68" spans="1:6" ht="39" customHeight="1">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="36"/>
-    </row>
-    <row r="68" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="48" t="s">
-        <v>196</v>
       </c>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
       <c r="F68" s="36"/>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
+    <row r="69" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A69" s="43"/>
+      <c r="B69" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
       <c r="F69" s="36"/>
     </row>
-    <row r="70" spans="1:6" ht="27" customHeight="1">
-      <c r="A70" s="47" t="s">
+    <row r="70" spans="1:6" ht="15" customHeight="1">
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:6" ht="27" customHeight="1">
+      <c r="A71" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="C71" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="62"/>
+      <c r="F71" s="36"/>
+    </row>
+    <row r="72" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A72" s="43"/>
+      <c r="B72" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" s="64"/>
-      <c r="F70" s="36"/>
-    </row>
-    <row r="71" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A71" s="43"/>
-      <c r="B71" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="36"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="48"/>
       <c r="C72" s="67"/>
       <c r="D72" s="67"/>
       <c r="E72" s="67"/>
       <c r="F72" s="36"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="44" t="s">
+        <v>199</v>
+      </c>
       <c r="C73" s="67"/>
       <c r="D73" s="67"/>
       <c r="E73" s="67"/>
       <c r="F73" s="36"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="36"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="A75" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B75" s="54"/>
+      <c r="C75" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="62"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="A76" s="43"/>
+      <c r="B76" s="58" t="s">
         <v>201</v>
-      </c>
-      <c r="C74" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="64"/>
-      <c r="F74" s="36"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="36"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="59" t="s">
-        <v>203</v>
       </c>
       <c r="C76" s="67"/>
       <c r="D76" s="67"/>
       <c r="E76" s="67"/>
       <c r="F76" s="36"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="9" t="b">
-        <v>1</v>
-      </c>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="A77" s="45"/>
+      <c r="B77" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="67"/>
-      <c r="F77" s="9"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="32"/>
+        <v>203</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="67"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="36"/>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="9"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="36"/>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A80" s="39"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="40"/>
       <c r="F80" s="36"/>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="6"/>
-      <c r="B81" s="20" t="s">
+    <row r="81" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="6"/>
+      <c r="B82" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="D82" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="E82" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="F82" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F81" s="20" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A83" s="33" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A82" s="33" t="s">
+      <c r="B83" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="C83" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="D83" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="E83" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="F83" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="26">
-        <v>1</v>
-      </c>
-      <c r="B83" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="D83" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="50" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="51" t="s">
-        <v>224</v>
-      </c>
       <c r="D84" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E84" s="51" t="s">
-        <v>225</v>
-      </c>
       <c r="F84" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="A85" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D85" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="F85" s="50" t="s">
         <v>222</v>
-      </c>
-      <c r="E85" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="A86" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C86" s="51" t="s">
-        <v>229</v>
-      </c>
       <c r="D86" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F86" s="50" t="s">
         <v>222</v>
-      </c>
-      <c r="E86" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" s="50" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1">
       <c r="A87" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="50" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>228</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E87" s="51" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F87" s="50" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D88" s="50" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E88" s="51" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F88" s="50" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="A89" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="50" t="s">
-        <v>238</v>
-      </c>
       <c r="D89" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="51" t="s">
-        <v>223</v>
-      </c>
       <c r="F89" s="50" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="A90" s="26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90" s="50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D90" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E90" s="51" t="s">
-        <v>223</v>
-      </c>
       <c r="F90" s="50" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E91" s="51" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F91" s="50" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
       <c r="A92" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>241</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E92" s="51" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F92" s="50" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1">
       <c r="A93" s="26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="51" t="s">
-        <v>246</v>
-      </c>
       <c r="D93" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E93" s="51" t="s">
-        <v>223</v>
-      </c>
       <c r="F93" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="A94" s="26">
+        <v>11</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1">
+      <c r="A95" s="26">
         <v>12</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B95" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="D95" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="E95" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E94" s="51" t="s">
+      <c r="F95" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="F94" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="37"/>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="36"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A97" s="55"/>
-      <c r="E97" s="56"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1">
+      <c r="A96" s="26"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="37"/>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A97" s="39"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="36"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="55"/>
       <c r="E98" s="56"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="55"/>
       <c r="E99" s="56"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="55"/>
       <c r="E100" s="56"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="55"/>
       <c r="E101" s="56"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="55"/>
       <c r="E102" s="56"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="55"/>
       <c r="E103" s="56"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
       <c r="E104" s="56"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="55"/>
       <c r="E105" s="56"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="55"/>
       <c r="E106" s="56"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="55"/>
       <c r="E107" s="56"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="55"/>
       <c r="E108" s="56"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="55"/>
       <c r="E109" s="56"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="55"/>
       <c r="E110" s="56"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="55"/>
       <c r="E111" s="56"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="55"/>
       <c r="E112" s="56"/>
     </row>
@@ -9570,31 +9535,34 @@
       <c r="A988" s="55"/>
       <c r="E988" s="56"/>
     </row>
+    <row r="989" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A989" s="55"/>
+      <c r="E989" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C17:C29"/>
-    <mergeCell ref="D17:D29"/>
-    <mergeCell ref="E17:E29"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="C17:C30"/>
+    <mergeCell ref="D17:D30"/>
+    <mergeCell ref="E17:E30"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B74" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B75" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B76" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B76" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B77" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
